--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/171.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/171.xlsx
@@ -479,13 +479,13 @@
         <v>-4.909610350451019</v>
       </c>
       <c r="E2" t="n">
-        <v>-13.19644173236825</v>
+        <v>-13.61724143800417</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.972619983001959</v>
+        <v>-1.458956573309678</v>
       </c>
       <c r="G2" t="n">
-        <v>-9.87282973296767</v>
+        <v>-10.81297490772918</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-4.818259338536164</v>
       </c>
       <c r="E3" t="n">
-        <v>-13.57350005420996</v>
+        <v>-13.93653651970818</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.831812265939195</v>
+        <v>-1.284396899520944</v>
       </c>
       <c r="G3" t="n">
-        <v>-9.787769041404976</v>
+        <v>-10.7383356892285</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-4.825331173706771</v>
       </c>
       <c r="E4" t="n">
-        <v>-14.23792133112472</v>
+        <v>-14.49505415893622</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.637430845648088</v>
+        <v>-1.132002494443253</v>
       </c>
       <c r="G4" t="n">
-        <v>-9.496465303176571</v>
+        <v>-10.41169582563027</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-4.927222401010567</v>
       </c>
       <c r="E5" t="n">
-        <v>-14.94789072962584</v>
+        <v>-15.13123533862137</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.652382255493339</v>
+        <v>-1.089635802447428</v>
       </c>
       <c r="G5" t="n">
-        <v>-9.574220489753582</v>
+        <v>-10.41435356310714</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-5.089588178191905</v>
       </c>
       <c r="E6" t="n">
-        <v>-15.63125656875257</v>
+        <v>-15.77404122354444</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.414887881944428</v>
+        <v>-0.8727618058742352</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.098590219816515</v>
+        <v>-9.98160058497673</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-5.281661254738813</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.40480218985311</v>
+        <v>-16.50769459788624</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.333637050508676</v>
+        <v>-0.800937432484526</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.00389359336231</v>
+        <v>-9.860915737381699</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-5.465518081923246</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.11423480393773</v>
+        <v>-17.17322872054254</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.195487070922783</v>
+        <v>-0.6523921644423021</v>
       </c>
       <c r="G8" t="n">
-        <v>-8.505666008720425</v>
+        <v>-9.384801052239489</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-5.604712600812191</v>
       </c>
       <c r="E9" t="n">
-        <v>-17.9810107135742</v>
+        <v>-17.98681060373308</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.198432839062171</v>
+        <v>-0.67323511056633</v>
       </c>
       <c r="G9" t="n">
-        <v>-8.280465307539895</v>
+        <v>-9.20482116507428</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-5.674550062788484</v>
       </c>
       <c r="E10" t="n">
-        <v>-18.6365030399509</v>
+        <v>-18.60865571180655</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.103880227939225</v>
+        <v>-0.5403875136313355</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.971630975806419</v>
+        <v>-8.904653937822028</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-5.668107561046255</v>
       </c>
       <c r="E11" t="n">
-        <v>-19.30443305402724</v>
+        <v>-19.27433384979411</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.9018267181828671</v>
+        <v>-0.3118744598318487</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.636507299966756</v>
+        <v>-8.547901777687834</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-5.589272207781815</v>
       </c>
       <c r="E12" t="n">
-        <v>-19.9227956095448</v>
+        <v>-19.88976372947513</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.136414600500915</v>
+        <v>-0.5255277499059765</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.1263657197389</v>
+        <v>-8.019417881178718</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-5.450104127611655</v>
       </c>
       <c r="E13" t="n">
-        <v>-20.77980466126135</v>
+        <v>-20.71495848528628</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.844718093187258</v>
+        <v>-0.2861873616563822</v>
       </c>
       <c r="G13" t="n">
-        <v>-6.523897219871192</v>
+        <v>-7.395189973988062</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-5.276259733234179</v>
       </c>
       <c r="E14" t="n">
-        <v>-21.47750657199977</v>
+        <v>-21.45108630486517</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6638217448231289</v>
+        <v>-0.07669742388592339</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.264669623605016</v>
+        <v>-7.12128590623631</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-5.101120222176802</v>
       </c>
       <c r="E15" t="n">
-        <v>-22.336610392171</v>
+        <v>-22.31021630964208</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.5515552479553278</v>
+        <v>0.08115647147676781</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.718681318196514</v>
+        <v>-6.485209464973892</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-4.963341756593298</v>
       </c>
       <c r="E16" t="n">
-        <v>-23.32913787060225</v>
+        <v>-23.33610297571405</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.2640613698538651</v>
+        <v>0.3562912156956412</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.250003061068404</v>
+        <v>-6.064553774669233</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-4.90631100401622</v>
       </c>
       <c r="E17" t="n">
-        <v>-24.06488601339873</v>
+        <v>-24.03279677913366</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1169300705185476</v>
+        <v>0.504221145504304</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.992359633446076</v>
+        <v>-5.853296376015141</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-4.960341658622909</v>
       </c>
       <c r="E18" t="n">
-        <v>-25.01821513712185</v>
+        <v>-24.96225863477632</v>
       </c>
       <c r="F18" t="n">
-        <v>0.07601119645996947</v>
+        <v>0.7581332668167393</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.512736211142284</v>
+        <v>-5.320649127202357</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-5.134154768715568</v>
       </c>
       <c r="E19" t="n">
-        <v>-25.89261076701221</v>
+        <v>-25.80588735298862</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1431878023408659</v>
+        <v>0.8431939583794337</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.285427649204236</v>
+        <v>-5.160229140482688</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-5.423073056072414</v>
       </c>
       <c r="E20" t="n">
-        <v>-26.65419002331542</v>
+        <v>-26.54816855490312</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3041838503855714</v>
+        <v>0.9915952110903986</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.977601424789572</v>
+        <v>-4.846576841303457</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-5.803891443939074</v>
       </c>
       <c r="E21" t="n">
-        <v>-27.26679196558262</v>
+        <v>-27.17995072083345</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5301831820394468</v>
+        <v>1.223106402240641</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.664957232929154</v>
+        <v>-4.561635962256131</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-6.239810119138035</v>
       </c>
       <c r="E22" t="n">
-        <v>-27.89306227201659</v>
+        <v>-27.78600651167979</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5851708539746963</v>
+        <v>1.313102891974666</v>
       </c>
       <c r="G22" t="n">
-        <v>-3.1407283348436</v>
+        <v>-3.960830184849321</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-6.694208721589708</v>
       </c>
       <c r="E23" t="n">
-        <v>-28.32623420383794</v>
+        <v>-28.19185480747046</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7170496204994029</v>
+        <v>1.480291599263508</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.045468739367201</v>
+        <v>-3.917232816386373</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-7.134624476286191</v>
       </c>
       <c r="E24" t="n">
-        <v>-28.67001189185598</v>
+        <v>-28.51244602715581</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6240419011117809</v>
+        <v>1.373851177160275</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.862726376302389</v>
+        <v>-3.68950530075739</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-7.531722457277622</v>
       </c>
       <c r="E25" t="n">
-        <v>-28.94920524995579</v>
+        <v>-28.78339123446533</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9525801486220549</v>
+        <v>1.677854449145154</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.713788339174913</v>
+        <v>-3.479256009422111</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-7.866378724677196</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.89337967063867</v>
+        <v>-28.78675595629565</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8866734961168059</v>
+        <v>1.590188389316956</v>
       </c>
       <c r="G26" t="n">
-        <v>-2.895915364006165</v>
+        <v>-3.615324312856171</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-8.135405523004019</v>
       </c>
       <c r="E27" t="n">
-        <v>-29.05006835104844</v>
+        <v>-28.94646895866187</v>
       </c>
       <c r="F27" t="n">
-        <v>0.7786227207640406</v>
+        <v>1.502286668037607</v>
       </c>
       <c r="G27" t="n">
-        <v>-2.64360050364042</v>
+        <v>-3.330606002957154</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-8.339883350374212</v>
       </c>
       <c r="E28" t="n">
-        <v>-28.92607115083446</v>
+        <v>-28.77410879175054</v>
       </c>
       <c r="F28" t="n">
-        <v>1.068577951799748</v>
+        <v>1.73509399716918</v>
       </c>
       <c r="G28" t="n">
-        <v>-2.792957494458831</v>
+        <v>-3.42327332247089</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-8.484167009365137</v>
       </c>
       <c r="E29" t="n">
-        <v>-28.98043039223331</v>
+        <v>-28.79520049162856</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9101610874148625</v>
+        <v>1.587150975057676</v>
       </c>
       <c r="G29" t="n">
-        <v>-2.745668096594516</v>
+        <v>-3.377096770348123</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-8.579625041044126</v>
       </c>
       <c r="E30" t="n">
-        <v>-28.75339676865493</v>
+        <v>-28.58675793808544</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9452484590306883</v>
+        <v>1.627789483078393</v>
       </c>
       <c r="G30" t="n">
-        <v>-2.723096966495381</v>
+        <v>-3.354224517283627</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-8.632754016439344</v>
       </c>
       <c r="E31" t="n">
-        <v>-28.38343447495344</v>
+        <v>-28.18722013226449</v>
       </c>
       <c r="F31" t="n">
-        <v>0.859520060023066</v>
+        <v>1.51747373933401</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.123079910612954</v>
+        <v>-3.697491605490843</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-8.643626358788627</v>
       </c>
       <c r="E32" t="n">
-        <v>-28.35503727008973</v>
+        <v>-28.13122435301043</v>
       </c>
       <c r="F32" t="n">
-        <v>0.859284398571915</v>
+        <v>1.513676971509909</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.347822381194023</v>
+        <v>-3.92448595216069</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-8.614659514435949</v>
       </c>
       <c r="E33" t="n">
-        <v>-27.81723165395731</v>
+        <v>-27.55744108866894</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8206751974916647</v>
+        <v>1.448424934146746</v>
       </c>
       <c r="G33" t="n">
-        <v>-3.699193604860267</v>
+        <v>-4.248716832036036</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-8.54660485107836</v>
       </c>
       <c r="E34" t="n">
-        <v>-27.19576622266626</v>
+        <v>-26.96265777056933</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9132115939769846</v>
+        <v>1.530932626655304</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.620417218661602</v>
+        <v>-4.189880023065319</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-8.436793593321426</v>
       </c>
       <c r="E35" t="n">
-        <v>-26.89891134803296</v>
+        <v>-26.71262097089804</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7028837488246553</v>
+        <v>1.333107930716823</v>
       </c>
       <c r="G35" t="n">
-        <v>-3.924629967491949</v>
+        <v>-4.492416957131924</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-8.283843084687264</v>
       </c>
       <c r="E36" t="n">
-        <v>-26.04203321934483</v>
+        <v>-25.81853451753373</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6696031150009877</v>
+        <v>1.262710618336862</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.030167020699102</v>
+        <v>-4.665759046756378</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-8.09188417309479</v>
       </c>
       <c r="E37" t="n">
-        <v>-25.4026575177663</v>
+        <v>-25.2608024164762</v>
       </c>
       <c r="F37" t="n">
-        <v>0.5796589944783296</v>
+        <v>1.164047024121614</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.228672516385354</v>
+        <v>-4.894704146549642</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-7.863503232086593</v>
       </c>
       <c r="E38" t="n">
-        <v>-24.98460719572714</v>
+        <v>-24.83845781910495</v>
       </c>
       <c r="F38" t="n">
-        <v>0.5527935890471077</v>
+        <v>1.149082521973521</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.366953418999664</v>
+        <v>-5.04199255351906</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-7.600311213708982</v>
       </c>
       <c r="E39" t="n">
-        <v>-24.39384321459994</v>
+        <v>-24.30302190978688</v>
       </c>
       <c r="F39" t="n">
-        <v>0.5217517390093752</v>
+        <v>1.083450807827949</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.503270476187716</v>
+        <v>-5.188456145409449</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-7.312432876705585</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.93417246182694</v>
+        <v>-23.84298457253431</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4964966868276856</v>
+        <v>1.055668941197806</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.627202214887495</v>
+        <v>-5.301665288081855</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-7.008042160814813</v>
       </c>
       <c r="E41" t="n">
-        <v>-23.15380575094585</v>
+        <v>-23.05113591206104</v>
       </c>
       <c r="F41" t="n">
-        <v>0.6637770402364196</v>
+        <v>1.186068277501398</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.775747482929718</v>
+        <v>-5.422900012396238</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-6.692296886057617</v>
       </c>
       <c r="E42" t="n">
-        <v>-22.68011314182936</v>
+        <v>-22.61885425683293</v>
       </c>
       <c r="F42" t="n">
-        <v>0.7845535339513425</v>
+        <v>1.302249372918875</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.910794586742123</v>
+        <v>-5.520437668567097</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-6.374612505139597</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.84469329749882</v>
+        <v>-21.77865572196515</v>
       </c>
       <c r="F43" t="n">
-        <v>0.945693597327307</v>
+        <v>1.489587134281133</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.911265909644425</v>
+        <v>-5.509256841940263</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-6.061548682359296</v>
       </c>
       <c r="E44" t="n">
-        <v>-21.45013056675772</v>
+        <v>-21.47232202007445</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9311480488701493</v>
+        <v>1.461412498565739</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.135864364894235</v>
+        <v>-5.716560365136154</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-5.752702136117729</v>
       </c>
       <c r="E45" t="n">
-        <v>-20.90774264463069</v>
+        <v>-20.92990791334174</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9774817086270179</v>
+        <v>1.512367741225736</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.260201964982108</v>
+        <v>-5.846972793742587</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-5.446427862251787</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.34901552855719</v>
+        <v>-20.38597509947938</v>
       </c>
       <c r="F46" t="n">
-        <v>1.131381728531508</v>
+        <v>1.677173649397384</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.162782139536825</v>
+        <v>-5.757670196059173</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-5.141890803422257</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.7334678181506</v>
+        <v>-19.82621369148139</v>
       </c>
       <c r="F47" t="n">
-        <v>1.027062259488634</v>
+        <v>1.574189595244367</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.541660291473535</v>
+        <v>-6.145136898660057</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-4.835066922783855</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.17155927248656</v>
+        <v>-19.32348235466195</v>
       </c>
       <c r="F48" t="n">
-        <v>1.017661986048275</v>
+        <v>1.585632267928035</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.560198992297419</v>
+        <v>-6.158320847621675</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-4.522583402785576</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.51381507002109</v>
+        <v>-18.65908726235288</v>
       </c>
       <c r="F49" t="n">
-        <v>1.078920871044712</v>
+        <v>1.616346810394725</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.023417759140529</v>
+        <v>-6.623542736799569</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-4.210207829759846</v>
       </c>
       <c r="E50" t="n">
-        <v>-17.81637500533949</v>
+        <v>-18.04109129131488</v>
       </c>
       <c r="F50" t="n">
-        <v>1.078292440508309</v>
+        <v>1.612209642696739</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.023260651506429</v>
+        <v>-6.623961690490504</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-3.905415284189082</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.91139575601086</v>
+        <v>-17.16902609133035</v>
       </c>
       <c r="F51" t="n">
-        <v>1.125961515155033</v>
+        <v>1.650622459234364</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.310322483614114</v>
+        <v>-6.970593500528044</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-3.617630148644785</v>
       </c>
       <c r="E52" t="n">
-        <v>-16.46179298412315</v>
+        <v>-16.79171901573465</v>
       </c>
       <c r="F52" t="n">
-        <v>1.025019860245325</v>
+        <v>1.544836652273217</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.242949493190592</v>
+        <v>-6.880557733885493</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-3.364665501934859</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.82625332727724</v>
+        <v>-16.19838894325046</v>
       </c>
       <c r="F53" t="n">
-        <v>1.177977234345211</v>
+        <v>1.696340780757671</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.365951678388608</v>
+        <v>-6.988490678512683</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-3.161801049504098</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.41634641760564</v>
+        <v>-15.84329950557717</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9475134274223069</v>
+        <v>1.435201708276603</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.713630872653486</v>
+        <v>-7.366962969061301</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-3.019794075953238</v>
       </c>
       <c r="E55" t="n">
-        <v>-14.74265579027894</v>
+        <v>-15.2140179694896</v>
       </c>
       <c r="F55" t="n">
-        <v>1.002199976392197</v>
+        <v>1.507130820089046</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.998309905643977</v>
+        <v>-7.587646825761435</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-2.952527766275007</v>
       </c>
       <c r="E56" t="n">
-        <v>-14.3763200644646</v>
+        <v>-14.83809867799512</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9239210977015165</v>
+        <v>1.386655449339483</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.305128022739829</v>
+        <v>-7.837068287199158</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-2.969628415414384</v>
       </c>
       <c r="E57" t="n">
-        <v>-13.64864987252147</v>
+        <v>-14.13891733703558</v>
       </c>
       <c r="F57" t="n">
-        <v>0.8918711403449712</v>
+        <v>1.308703878219846</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.718884069446897</v>
+        <v>-8.200942660079251</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-3.072950332763574</v>
       </c>
       <c r="E58" t="n">
-        <v>-13.31707421075191</v>
+        <v>-13.90262745534811</v>
       </c>
       <c r="F58" t="n">
-        <v>0.7340434295879634</v>
+        <v>1.185033985576901</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.683168267294668</v>
+        <v>-8.197918338122813</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-3.262346691161942</v>
       </c>
       <c r="E59" t="n">
-        <v>-12.75062263600179</v>
+        <v>-13.37327946685144</v>
       </c>
       <c r="F59" t="n">
-        <v>0.7928016847416299</v>
+        <v>1.233213660034453</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.917258642104731</v>
+        <v>-8.412907043086795</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-3.531862054369635</v>
       </c>
       <c r="E60" t="n">
-        <v>-12.60157986045158</v>
+        <v>-13.22677659805253</v>
       </c>
       <c r="F60" t="n">
-        <v>0.7316868150764527</v>
+        <v>1.131276990108774</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.80674651381772</v>
+        <v>-8.309451666031476</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-3.866280171807779</v>
       </c>
       <c r="E61" t="n">
-        <v>-12.13889787802498</v>
+        <v>-12.84877563040621</v>
       </c>
       <c r="F61" t="n">
-        <v>0.6331148669810971</v>
+        <v>1.052487511607267</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.229444603365689</v>
+        <v>-8.603648803187903</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-4.245755040061622</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.73393985882756</v>
+        <v>-12.50038945178788</v>
       </c>
       <c r="F62" t="n">
-        <v>0.673216590585304</v>
+        <v>1.067884059749136</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.402708139173091</v>
+        <v>-8.86887267415559</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-4.649222310719533</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.2809985497152</v>
+        <v>-12.06385279813621</v>
       </c>
       <c r="F63" t="n">
-        <v>0.671645514244297</v>
+        <v>1.044252453119821</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.377675656139711</v>
+        <v>-8.838498531562784</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-5.050991672038601</v>
       </c>
       <c r="E64" t="n">
-        <v>-10.96691420454219</v>
+        <v>-11.77764196571324</v>
       </c>
       <c r="F64" t="n">
-        <v>0.5994545563750194</v>
+        <v>0.9777697392895359</v>
       </c>
       <c r="G64" t="n">
-        <v>-8.536432920398481</v>
+        <v>-9.007441607432419</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-5.426564649557662</v>
       </c>
       <c r="E65" t="n">
-        <v>-10.6825493868199</v>
+        <v>-11.51621486256965</v>
       </c>
       <c r="F65" t="n">
-        <v>0.6443480628192981</v>
+        <v>0.9934281334882402</v>
       </c>
       <c r="G65" t="n">
-        <v>-8.719842990908221</v>
+        <v>-9.195355430119713</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-5.759825517234824</v>
       </c>
       <c r="E66" t="n">
-        <v>-10.43053564941952</v>
+        <v>-11.28691627059966</v>
       </c>
       <c r="F66" t="n">
-        <v>0.421634899178696</v>
+        <v>0.7913484391261983</v>
       </c>
       <c r="G66" t="n">
-        <v>-8.694653400240741</v>
+        <v>-9.166578548473598</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-6.037712759947732</v>
       </c>
       <c r="E67" t="n">
-        <v>-10.21332125297244</v>
+        <v>-11.0928621578796</v>
       </c>
       <c r="F67" t="n">
-        <v>0.4259946360249907</v>
+        <v>0.7568240365325668</v>
       </c>
       <c r="G67" t="n">
-        <v>-8.798855038558038</v>
+        <v>-9.25169160924766</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-6.250936367466198</v>
       </c>
       <c r="E68" t="n">
-        <v>-10.02663810675227</v>
+        <v>-10.93214104819457</v>
       </c>
       <c r="F68" t="n">
-        <v>0.3884459114749204</v>
+        <v>0.7052796402446913</v>
       </c>
       <c r="G68" t="n">
-        <v>-8.667513056449843</v>
+        <v>-9.158788628282771</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-6.400970156473615</v>
       </c>
       <c r="E69" t="n">
-        <v>-9.889483142182346</v>
+        <v>-10.76831706273605</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1132326134389967</v>
+        <v>0.4685969894719674</v>
       </c>
       <c r="G69" t="n">
-        <v>-8.654250553671174</v>
+        <v>-9.123177564553277</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-6.492038400574208</v>
       </c>
       <c r="E70" t="n">
-        <v>-9.794433023551415</v>
+        <v>-10.65912725703605</v>
       </c>
       <c r="F70" t="n">
-        <v>0.2618171583897458</v>
+        <v>0.5982631568164223</v>
       </c>
       <c r="G70" t="n">
-        <v>-8.554225359960387</v>
+        <v>-9.042987209647706</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-6.529506106152088</v>
       </c>
       <c r="E71" t="n">
-        <v>-9.652970691346564</v>
+        <v>-10.50789806691128</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1715326379932029</v>
+        <v>0.5099817587546635</v>
       </c>
       <c r="G71" t="n">
-        <v>-8.283162321925291</v>
+        <v>-8.71383362390387</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-6.52448985642099</v>
       </c>
       <c r="E72" t="n">
-        <v>-9.635701943898328</v>
+        <v>-10.45948273100257</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1357513743267655</v>
+        <v>0.50995557414898</v>
       </c>
       <c r="G72" t="n">
-        <v>-8.072245323145083</v>
+        <v>-8.549184823366323</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-6.488715649288172</v>
       </c>
       <c r="E73" t="n">
-        <v>-9.641894603142463</v>
+        <v>-10.47160620343401</v>
       </c>
       <c r="F73" t="n">
-        <v>0.01723984900346115</v>
+        <v>0.35347637058467</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.985155324641922</v>
+        <v>-8.482230786633735</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-6.430907245947301</v>
       </c>
       <c r="E74" t="n">
-        <v>-9.792390624308105</v>
+        <v>-10.60623435355548</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1044607705350402</v>
+        <v>0.4591574391230829</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.800737146813368</v>
+        <v>-8.261285083876766</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-6.360424653665302</v>
       </c>
       <c r="E75" t="n">
-        <v>-9.850939402616303</v>
+        <v>-10.67414412839551</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.1346963254747699</v>
+        <v>0.240830196934459</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.601014066962837</v>
+        <v>-8.074510291536702</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-6.289630596085785</v>
       </c>
       <c r="E76" t="n">
-        <v>-10.23041980048373</v>
+        <v>-11.04761515925859</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.04722665018919801</v>
+        <v>0.3471658806149581</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.37394116647594</v>
+        <v>-7.83063996650387</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-6.225026372451591</v>
       </c>
       <c r="E77" t="n">
-        <v>-10.56401167689091</v>
+        <v>-11.40229873554379</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.1381134165164604</v>
+        <v>0.2557554221740266</v>
       </c>
       <c r="G77" t="n">
-        <v>-7.302705946714108</v>
+        <v>-7.678193192214812</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-6.167927428748851</v>
       </c>
       <c r="E78" t="n">
-        <v>-11.1200679631847</v>
+        <v>-11.97017737130366</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.2043997458041195</v>
+        <v>0.1979529051278061</v>
       </c>
       <c r="G78" t="n">
-        <v>-7.045141072908832</v>
+        <v>-7.420680687620902</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-6.121716468411303</v>
       </c>
       <c r="E79" t="n">
-        <v>-11.58216079198342</v>
+        <v>-12.3975101360576</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.2447633154651609</v>
+        <v>0.1140574285180254</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.994500045517035</v>
+        <v>-7.375237304457271</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-6.083790918768361</v>
       </c>
       <c r="E80" t="n">
-        <v>-12.05648183163632</v>
+        <v>-12.89874895035308</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.1743921876908833</v>
+        <v>0.2918509011086655</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.612636848532411</v>
+        <v>-7.045861149565127</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-6.044898721554151</v>
       </c>
       <c r="E81" t="n">
-        <v>-12.91388365243812</v>
+        <v>-13.75236709563362</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.2567296802624985</v>
+        <v>0.1524702450556497</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.638886915730072</v>
+        <v>-7.04254879694617</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-5.99959839749913</v>
       </c>
       <c r="E82" t="n">
-        <v>-13.58909298689446</v>
+        <v>-14.41941992541956</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.233386104295701</v>
+        <v>0.2141873606515464</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.460268628060403</v>
+        <v>-6.871563321833228</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-5.942583167066943</v>
       </c>
       <c r="E83" t="n">
-        <v>-14.29927186224104</v>
+        <v>-15.16518367988997</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.4354396140520594</v>
+        <v>0.05550865020982645</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.137805209068691</v>
+        <v>-6.587381796350722</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-5.866887012545554</v>
       </c>
       <c r="E84" t="n">
-        <v>-15.45506035710862</v>
+        <v>-16.28094900497038</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.431250077142707</v>
+        <v>0.04609528446662541</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.010404010115853</v>
+        <v>-6.403631325967096</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-5.769429715620605</v>
       </c>
       <c r="E85" t="n">
-        <v>-16.27069773184531</v>
+        <v>-17.10164000860398</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.4389614435164837</v>
+        <v>0.08212530188705555</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.696306572640004</v>
+        <v>-6.126519644019123</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-5.652008817301851</v>
       </c>
       <c r="E86" t="n">
-        <v>-17.27342411419027</v>
+        <v>-18.10520429833081</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.5736026859407946</v>
+        <v>0.001921854678641652</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.384238442104621</v>
+        <v>-5.822123602948992</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-5.515765842453781</v>
       </c>
       <c r="E87" t="n">
-        <v>-18.30894671515376</v>
+        <v>-19.13559471658034</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.5835397437976647</v>
+        <v>0.02407403108684216</v>
       </c>
       <c r="G87" t="n">
-        <v>-4.927120688385755</v>
+        <v>-5.397265283432138</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-5.361899041112938</v>
       </c>
       <c r="E88" t="n">
-        <v>-19.61551926184949</v>
+        <v>-20.44439295475917</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.4087313162549382</v>
+        <v>0.1608624111771961</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.729243623235908</v>
+        <v>-5.205947462005995</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-5.198071318917959</v>
       </c>
       <c r="E89" t="n">
-        <v>-21.10588155583738</v>
+        <v>-21.98991312061925</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.6337487251956841</v>
+        <v>-0.04396666678160822</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.395494639194626</v>
+        <v>-4.864055065597161</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-5.030869182729952</v>
       </c>
       <c r="E90" t="n">
-        <v>-22.6250600083799</v>
+        <v>-23.49771436199231</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.8126288589221874</v>
+        <v>-0.2186441712959174</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.153221575108486</v>
+        <v>-4.604303777217316</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-4.867705552628075</v>
       </c>
       <c r="E91" t="n">
-        <v>-24.10543287529955</v>
+        <v>-24.95940451275682</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8475983998124378</v>
+        <v>-0.2515713129428585</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.18245668735406</v>
+        <v>-4.632229659178718</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-4.72538589328095</v>
       </c>
       <c r="E92" t="n">
-        <v>-25.69724742400798</v>
+        <v>-26.62499418797837</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.008057663440632</v>
+        <v>-0.4189040355629594</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.970387565923781</v>
+        <v>-4.369715894899268</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-4.62025396722447</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.69823571342886</v>
+        <v>-28.60547993114911</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.9648530640629364</v>
+        <v>-0.3923790300056224</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.924852536640258</v>
+        <v>-4.369493325750959</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-4.566325077973951</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.80586080949561</v>
+        <v>-30.73972167889309</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.9285219236771466</v>
+        <v>-0.3652910554260911</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.989122651290291</v>
+        <v>-4.44027031491333</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-4.583356091533859</v>
       </c>
       <c r="E95" t="n">
-        <v>-31.99049483087739</v>
+        <v>-32.93408328128627</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.327732421927058</v>
+        <v>-0.7517496507081612</v>
       </c>
       <c r="G95" t="n">
-        <v>-4.219350796762044</v>
+        <v>-4.620158555958646</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-4.700680523783391</v>
       </c>
       <c r="E96" t="n">
-        <v>-34.16016435011107</v>
+        <v>-35.05900330940693</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.374655235311804</v>
+        <v>-0.837792264983985</v>
       </c>
       <c r="G96" t="n">
-        <v>-4.443294636869768</v>
+        <v>-4.783314833972236</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-4.92379384983835</v>
       </c>
       <c r="E97" t="n">
-        <v>-36.44776933334303</v>
+        <v>-37.34705343093551</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.617085407032046</v>
+        <v>-1.122510574883002</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.537925801809765</v>
+        <v>-4.941090175517878</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-5.293150648124468</v>
       </c>
       <c r="E98" t="n">
-        <v>-38.92607679976756</v>
+        <v>-39.80955848783008</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.957747126973758</v>
+        <v>-1.434055013304715</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.885146765475182</v>
+        <v>-5.238769865230203</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-5.787650117542408</v>
       </c>
       <c r="E99" t="n">
-        <v>-41.295286106612</v>
+        <v>-42.18683265322502</v>
       </c>
       <c r="F99" t="n">
-        <v>-1.814831549153476</v>
+        <v>-1.312257319968138</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.167429907045637</v>
+        <v>-5.585205290725116</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-6.459497847036645</v>
       </c>
       <c r="E100" t="n">
-        <v>-43.82524270774714</v>
+        <v>-44.72355797492934</v>
       </c>
       <c r="F100" t="n">
-        <v>-1.998438004205842</v>
+        <v>-1.470281415267771</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.390614393588542</v>
+        <v>-5.788240723194604</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-7.208410166517361</v>
       </c>
       <c r="E101" t="n">
-        <v>-46.32600347354524</v>
+        <v>-47.18796141573596</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.217288938508136</v>
+        <v>-1.668839280165389</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.805077424649064</v>
+        <v>-6.191522927628292</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-8.158955108032997</v>
       </c>
       <c r="E102" t="n">
-        <v>-48.69120653572011</v>
+        <v>-49.53876294478492</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.309969350324714</v>
+        <v>-1.760053354063694</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.127082613041316</v>
+        <v>-6.483939511598244</v>
       </c>
     </row>
   </sheetData>
